--- a/modelagem/resultados.xlsx
+++ b/modelagem/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,1552 +434,1390 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ativos</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ativos</t>
+          <t>Modelo Individual fixo</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Modelo Individual Treino</t>
+          <t>Modelo Individual deslizante</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Modelo Individual Teste</t>
+          <t>Modelo por grupos fixo</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Modelo por grupos Treino</t>
+          <t>Modelo por grupos deslizante</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Modelo por grupos Teste</t>
+          <t>Modelo com a Média fixo</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Modelo com a Média Treino</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo com a Média Teste</t>
+          <t>Modelo com a Média agrupado</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>ABEV3</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>0.1464250325822091</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.1980896828691809</v>
+        <v>0.08908681820629091</v>
       </c>
       <c r="D2" t="n">
-        <v>2.323295902536642</v>
+        <v>0.1360252199622319</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1243852043503609</v>
+        <v>0.0190602214512055</v>
       </c>
       <c r="F2" t="n">
-        <v>2.234817166044537</v>
+        <v>0.02964991353972617</v>
       </c>
       <c r="G2" t="n">
-        <v>1.347719549323775</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.562574366758131</v>
+        <v>0.0190602214512055</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>B3SA3</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>0.2279687403373112</v>
+      </c>
       <c r="C3" t="n">
-        <v>0.08977751040881432</v>
+        <v>0.073847790915287</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3306744859834369</v>
+        <v>0.1045263723925341</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06251565766717562</v>
+        <v>0.02445102065720153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1247980155356129</v>
+        <v>0.224638608939041</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3780541593786977</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.2015222030482544</v>
+        <v>0.02445102065720153</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>BBAS3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>0.2780383796259374</v>
+      </c>
       <c r="C4" t="n">
-        <v>0.2722797942073727</v>
+        <v>0.1526603102827916</v>
       </c>
       <c r="D4" t="n">
-        <v>2.046226156836924</v>
+        <v>0.2078862070533341</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3328900488866985</v>
+        <v>0.1876512846169894</v>
       </c>
       <c r="F4" t="n">
-        <v>1.406883681947437</v>
+        <v>0.2677857015495413</v>
       </c>
       <c r="G4" t="n">
-        <v>2.925972039807859</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.373583489861759</v>
+        <v>0.1876512846169894</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>BBDC3</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>0.2304350215212573</v>
+      </c>
       <c r="C5" t="n">
-        <v>0.1477153533789821</v>
+        <v>0.1709904755517455</v>
       </c>
       <c r="D5" t="n">
-        <v>1.530619342151684</v>
+        <v>0.1069710700920822</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1313397809952089</v>
+        <v>0.08314851543181312</v>
       </c>
       <c r="F5" t="n">
-        <v>1.327553781929246</v>
+        <v>0.07355636533296574</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8778592543796438</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.611163201938715</v>
+        <v>0.08314851543181312</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>BBDC4</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>0.1828113661626085</v>
+      </c>
       <c r="C6" t="n">
-        <v>0.1161482551445332</v>
+        <v>0.1827565327990379</v>
       </c>
       <c r="D6" t="n">
-        <v>3.79028888902927</v>
+        <v>0.1085302149464704</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1269259052839969</v>
+        <v>0.09654646418211345</v>
       </c>
       <c r="F6" t="n">
-        <v>3.977866684345579</v>
+        <v>0.09729797118804344</v>
       </c>
       <c r="G6" t="n">
-        <v>1.207743346823969</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6.124721696431913</v>
+        <v>0.09654646418211345</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>BEEF3</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>0.2172426134241674</v>
+      </c>
       <c r="C7" t="n">
-        <v>0.5252470701478108</v>
+        <v>0.0801523768058279</v>
       </c>
       <c r="D7" t="n">
-        <v>0.393703212114328</v>
+        <v>0.1109928016250106</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2696238759264789</v>
+        <v>0.04858238690061676</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1781338834673513</v>
+        <v>0.4142787964280183</v>
       </c>
       <c r="G7" t="n">
-        <v>5.336371847682211</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.2854444051170721</v>
+        <v>0.04858238690061676</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>BRAP4</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>0.07882986477731824</v>
+      </c>
       <c r="C8" t="n">
-        <v>0.2499177627504606</v>
+        <v>0.1239452301300739</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8815502773046681</v>
+        <v>0.2012862062012783</v>
       </c>
       <c r="E8" t="n">
-        <v>0.173694785730825</v>
+        <v>0.1454677829311312</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4433006033962832</v>
+        <v>0.229560658843016</v>
       </c>
       <c r="G8" t="n">
-        <v>2.508202921175943</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.110426493651381</v>
+        <v>0.1454677829311312</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>BRFS3</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>0.287899620717382</v>
+      </c>
       <c r="C9" t="n">
-        <v>0.1227406434808356</v>
+        <v>0.1512112964204572</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3298156290087699</v>
+        <v>0.1542268755325287</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1085328189079107</v>
+        <v>0.1358362369629796</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3114095237855074</v>
+        <v>0.1760643283236161</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3059374178092284</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.1640386721001437</v>
+        <v>0.1358362369629796</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>BRKM5</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>0.1977771916081576</v>
+      </c>
       <c r="C10" t="n">
-        <v>0.1951441392032753</v>
+        <v>0.03282093573190539</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1224006190350244</v>
+        <v>0.2205981944359086</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08709090772843033</v>
+        <v>0.1423042830809126</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1174131245572001</v>
+        <v>0.1062134259247047</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3602086109632227</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.1646922098506946</v>
+        <v>0.1423042830809126</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>CCRO3</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>0.1982842703672507</v>
+      </c>
       <c r="C11" t="n">
-        <v>0.104420413587691</v>
+        <v>0.1593496040621577</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1442549147222164</v>
+        <v>0.1643798685034341</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1778724379723721</v>
+        <v>0.117654319910735</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1215725847503309</v>
+        <v>0.1160496570564772</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4049793312031713</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.1236657528897047</v>
+        <v>0.117654319910735</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>CIEL3</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>0.1931597708458735</v>
+      </c>
       <c r="C12" t="n">
-        <v>0.1149690520005073</v>
+        <v>0.06579174681577818</v>
       </c>
       <c r="D12" t="n">
-        <v>2.236527392183099</v>
+        <v>0.2117295295480479</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07651461964873095</v>
+        <v>0.106267363742328</v>
       </c>
       <c r="F12" t="n">
-        <v>1.303684407288157</v>
+        <v>0.3413251831879982</v>
       </c>
       <c r="G12" t="n">
-        <v>0.739071412694062</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.790477260516184</v>
+        <v>0.106267363742328</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>CMIG4</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>0.1954835449086101</v>
+      </c>
       <c r="C13" t="n">
-        <v>0.5690248274793203</v>
+        <v>0.1139953194218584</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5717891541300112</v>
+        <v>0.09461465713882407</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4752929403351466</v>
+        <v>0.1366469633846905</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2851469463615022</v>
+        <v>0.04702226544460014</v>
       </c>
       <c r="G13" t="n">
-        <v>4.085839302943641</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.2665978002747246</v>
+        <v>0.1366469633846905</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>CPFE3</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>0.2921107163111835</v>
+      </c>
       <c r="C14" t="n">
-        <v>0.1206256705814625</v>
+        <v>0.1223198389050319</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4853944796956428</v>
+        <v>0.2199521796072503</v>
       </c>
       <c r="E14" t="n">
-        <v>0.114646057430771</v>
+        <v>0.1218404823837454</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4250614007072142</v>
+        <v>0.1172192579803647</v>
       </c>
       <c r="G14" t="n">
-        <v>1.466276288938206</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.4714969411599583</v>
+        <v>0.1218404823837454</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>CPLE6</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>0.1783254951805432</v>
+      </c>
       <c r="C15" t="n">
-        <v>0.1401093153941206</v>
+        <v>0.06454339248122358</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5303210339280738</v>
+        <v>0.4089231363205875</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1710663023735896</v>
+        <v>0.07550902004067239</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1702665138404563</v>
+        <v>1.505367447509592</v>
       </c>
       <c r="G15" t="n">
-        <v>1.186583063783859</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.2443538664984775</v>
+        <v>0.07550902004067239</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>CSAN3</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>0.1950847179494758</v>
+      </c>
       <c r="C16" t="n">
-        <v>0.6820762315479457</v>
+        <v>0.1298737755520895</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3380463167859129</v>
+        <v>0.1219542171988196</v>
       </c>
       <c r="E16" t="n">
-        <v>2.498939199599127</v>
+        <v>0.03440022686248142</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1914639618840094</v>
+        <v>0.1774362156179824</v>
       </c>
       <c r="G16" t="n">
-        <v>15.7091927802404</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.232702046815509</v>
+        <v>0.03440022686248142</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>CSNA3</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>0.2280000729663751</v>
+      </c>
       <c r="C17" t="n">
-        <v>0.3213083374623741</v>
+        <v>0.1139236965781596</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9722537074216538</v>
+        <v>0.1473981117142866</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3095145446355536</v>
+        <v>0.1777714009999801</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6447861054914295</v>
+        <v>0.09462633285998426</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8940580920109698</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.509550445430677</v>
+        <v>0.1777714009999801</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>CYRE3</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>0.1952425875649364</v>
+      </c>
       <c r="C18" t="n">
-        <v>0.06295684293384636</v>
+        <v>0.1255514148117107</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1805629551433762</v>
+        <v>0.2675286196000352</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05528483305531849</v>
+        <v>0.1618265477165793</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1159558848281582</v>
+        <v>0.2128205598937424</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1672450417211196</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.06085235894302378</v>
+        <v>0.1618265477165793</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>EGIE3</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>0.3539673873245179</v>
+      </c>
       <c r="C19" t="n">
-        <v>1.056370751606162</v>
+        <v>0.1900152520890281</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8125394937003918</v>
+        <v>0.2556012980439824</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5146278585359273</v>
+        <v>0.1466433732924376</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6955860475868545</v>
+        <v>0.1489978734934782</v>
       </c>
       <c r="G19" t="n">
-        <v>10.5371745464313</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.641308976246961</v>
+        <v>0.1466433732924376</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>ELET3</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>0.2511595058187107</v>
+      </c>
       <c r="C20" t="n">
-        <v>0.6739562543690073</v>
+        <v>0.1986760831349294</v>
       </c>
       <c r="D20" t="n">
-        <v>3.766710904547317</v>
+        <v>0.1621060845036885</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1746520792743955</v>
+        <v>0.1887392649665147</v>
       </c>
       <c r="F20" t="n">
-        <v>6.406584811151816</v>
+        <v>0.02364453553569167</v>
       </c>
       <c r="G20" t="n">
-        <v>1.804279002834304</v>
-      </c>
-      <c r="H20" t="n">
-        <v>12.75406585563482</v>
+        <v>0.1887392649665147</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>ELET6</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>0.2385018634691808</v>
+      </c>
       <c r="C21" t="n">
-        <v>0.148768564118995</v>
+        <v>0.1637849032400401</v>
       </c>
       <c r="D21" t="n">
-        <v>2.154118613550812</v>
+        <v>0.1639933714519075</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2001478110115849</v>
+        <v>0.1908191597372906</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8589369576919291</v>
+        <v>0.02504001763143755</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8889048487652735</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.330250338498129</v>
+        <v>0.1908191597372906</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>EMBR3</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>0.0584162616719875</v>
+      </c>
       <c r="C22" t="n">
-        <v>0.3870761127793752</v>
+        <v>0.05129140142111775</v>
       </c>
       <c r="D22" t="n">
-        <v>1.136892544477559</v>
+        <v>0.1158898340212462</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2019332383155693</v>
+        <v>0.1125994597802112</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8593057011240769</v>
+        <v>0.03223485135718897</v>
       </c>
       <c r="G22" t="n">
-        <v>1.175601569169354</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.6032782546698933</v>
+        <v>0.1125994597802112</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>ENBR3</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>0.3129320475268599</v>
+      </c>
       <c r="C23" t="n">
-        <v>0.151750243428401</v>
+        <v>0.1044830966678715</v>
       </c>
       <c r="D23" t="n">
-        <v>3.055773417581925</v>
+        <v>0.1181560753391579</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1335675688138044</v>
+        <v>0.01281137664048549</v>
       </c>
       <c r="F23" t="n">
-        <v>4.951385987688004</v>
+        <v>0.009516158390010321</v>
       </c>
       <c r="G23" t="n">
-        <v>2.254651150336761</v>
-      </c>
-      <c r="H23" t="n">
-        <v>13.69332890641535</v>
+        <v>0.01281137664048549</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>ENEV3</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>0.2202618200660984</v>
+      </c>
       <c r="C24" t="n">
-        <v>0.2502345259667569</v>
+        <v>0.1281061638916026</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3345330583087017</v>
+        <v>0.1155863007207176</v>
       </c>
       <c r="E24" t="n">
-        <v>0.186589560478089</v>
+        <v>0.06093980353567078</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1366977158616721</v>
+        <v>0.7467536510498686</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7372483921613355</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.2674838974833967</v>
+        <v>0.06093980353567078</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>ENGI11</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>0.3764949862246422</v>
+      </c>
       <c r="C25" t="n">
-        <v>0.1437635531804606</v>
+        <v>0.1473005242653464</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6366870655103322</v>
+        <v>0.2592765966340919</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3473040568976543</v>
+        <v>0.1531404293434067</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3472826294460904</v>
+        <v>0.159907749659569</v>
       </c>
       <c r="G25" t="n">
-        <v>3.705372413028417</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.7396650835345888</v>
+        <v>0.1531404293434067</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>EQTL3</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>0.2056684893918309</v>
+      </c>
       <c r="C26" t="n">
-        <v>0.1481712113112135</v>
+        <v>0.1635135182251203</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2359570569317076</v>
+        <v>0.2071711035900027</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1371133533137215</v>
+        <v>0.1402470790289541</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1227701083423424</v>
+        <v>0.160628810466478</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4325579539020544</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1121247213732602</v>
+        <v>0.1402470790289541</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>EZTC3</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>0.2777103095089556</v>
+      </c>
       <c r="C27" t="n">
-        <v>0.09859136981793096</v>
+        <v>0.2103045470411266</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1725922535212582</v>
+        <v>0.335966242041248</v>
       </c>
       <c r="E27" t="n">
-        <v>0.05421913299075051</v>
+        <v>0.1891831724808352</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09244987170771023</v>
+        <v>0.2517640858814971</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2101287769173126</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.05886589254778415</v>
+        <v>0.1891831724808352</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>FLRY3</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>0.1633623598432017</v>
+      </c>
       <c r="C28" t="n">
-        <v>1.458669327983129</v>
+        <v>0.1460096336067646</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2630646883674522</v>
+        <v>0.255807003147366</v>
       </c>
       <c r="E28" t="n">
-        <v>1.565998071046055</v>
+        <v>0.1562365546066824</v>
       </c>
       <c r="F28" t="n">
-        <v>0.122261893675695</v>
+        <v>0.1888080399199166</v>
       </c>
       <c r="G28" t="n">
-        <v>12.3728648893711</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.1335673625843358</v>
+        <v>0.1562365546066824</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>GGBR4</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>0.1113484105758139</v>
+      </c>
       <c r="C29" t="n">
-        <v>0.07164957972093124</v>
+        <v>0.1209867017146203</v>
       </c>
       <c r="D29" t="n">
-        <v>1.422261375935994</v>
+        <v>0.1177071548995429</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1290378143031612</v>
+        <v>0.039729146963329</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5983053853332234</v>
+        <v>0.1642921589338279</v>
       </c>
       <c r="G29" t="n">
-        <v>1.133462554610223</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.5630097175272742</v>
+        <v>0.039729146963329</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>GOAU4</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>0.09365406053634398</v>
+      </c>
       <c r="C30" t="n">
-        <v>0.1352145071122076</v>
+        <v>0.1040137024753276</v>
       </c>
       <c r="D30" t="n">
-        <v>1.668380473529675</v>
+        <v>0.1322006275292653</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1209234008759762</v>
+        <v>0.02167304352802823</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9406494825348919</v>
+        <v>1.036627033962787</v>
       </c>
       <c r="G30" t="n">
-        <v>1.060402836298755</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.93236251087448</v>
+        <v>0.02167304352802823</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>GOLL4</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>0.2337848428194361</v>
+      </c>
       <c r="C31" t="n">
-        <v>0.3694785196834491</v>
+        <v>0.1115242124066085</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2636069210395229</v>
+        <v>0.2271819404956576</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3023706667095973</v>
+        <v>0.1249572911825799</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2001039265680376</v>
+        <v>0.1204895341906428</v>
       </c>
       <c r="G31" t="n">
-        <v>3.399749317861568</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.2470327630004744</v>
+        <v>0.1249572911825799</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>HYPE3</t>
         </is>
       </c>
+      <c r="B32" t="n">
+        <v>0.2020558759430152</v>
+      </c>
       <c r="C32" t="n">
-        <v>0.09060765092059021</v>
+        <v>0.07791210882819437</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2791640551358465</v>
+        <v>0.3003030127124953</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1095694475934692</v>
+        <v>0.1699795315220386</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1905740096315429</v>
+        <v>0.2499326349954412</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5417979193625644</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.2297722320172356</v>
+        <v>0.1699795315220386</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>ITSA4</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>0.1756659992748313</v>
+      </c>
       <c r="C33" t="n">
-        <v>0.1542396862753029</v>
+        <v>0.1558566196079559</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6024690276057105</v>
+        <v>0.1072138420523086</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1579242727339933</v>
+        <v>0.01137532879396331</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2086529522954178</v>
+        <v>0.05131990995790239</v>
       </c>
       <c r="G33" t="n">
-        <v>1.315413302891397</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.2683163855674562</v>
+        <v>0.01137532879396331</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>ITUB4</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>0.1709322008733629</v>
+      </c>
       <c r="C34" t="n">
-        <v>0.1269803657069593</v>
+        <v>0.1339774892251737</v>
       </c>
       <c r="D34" t="n">
-        <v>2.187289249801418</v>
+        <v>0.1708699285808782</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1071732761074841</v>
+        <v>0.1501991840164182</v>
       </c>
       <c r="F34" t="n">
-        <v>2.135648067197125</v>
+        <v>0.197046188624386</v>
       </c>
       <c r="G34" t="n">
-        <v>1.333346417115473</v>
-      </c>
-      <c r="H34" t="n">
-        <v>4.932028698714672</v>
+        <v>0.1501991840164182</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>JBSS3</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>0.4078176426600337</v>
+      </c>
       <c r="C35" t="n">
-        <v>0.1940160472302846</v>
+        <v>0.1277666901991311</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4063407873166274</v>
+        <v>0.1226847370928415</v>
       </c>
       <c r="E35" t="n">
-        <v>0.123949447031553</v>
+        <v>0.100766611470306</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2283053974251051</v>
+        <v>0.1498553293141133</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3081274516531355</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.121157085377144</v>
+        <v>0.100766611470306</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>JHSF3</t>
         </is>
       </c>
+      <c r="B36" t="n">
+        <v>0.2049509640451923</v>
+      </c>
       <c r="C36" t="n">
-        <v>0.0752649561950535</v>
+        <v>0.1707190970945093</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2643115259786918</v>
+        <v>1.675518914673241</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0618715810886241</v>
+        <v>0.07635699985714939</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1350692933144193</v>
+        <v>1.511364466333163</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3009531028600776</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.2545950206206355</v>
+        <v>0.07635699985714939</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>LREN3</t>
         </is>
       </c>
+      <c r="B37" t="n">
+        <v>0.348072098511708</v>
+      </c>
       <c r="C37" t="n">
-        <v>0.1121492578584506</v>
+        <v>0.1838645101912513</v>
       </c>
       <c r="D37" t="n">
-        <v>0.307108278563189</v>
+        <v>0.2630738401217944</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06672465603173711</v>
+        <v>0.1526103564857921</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1717674620639116</v>
+        <v>0.1561091224469717</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3407150104145004</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.3138134365462999</v>
+        <v>0.1526103564857921</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>MRFG3</t>
         </is>
       </c>
+      <c r="B38" t="n">
+        <v>0.1842369023722813</v>
+      </c>
       <c r="C38" t="n">
-        <v>0.07777361281698643</v>
+        <v>0.1376169827007315</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1619713749302032</v>
+        <v>0.04924696054233541</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1029658325045949</v>
+        <v>0.04466939965965885</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06010970875738001</v>
+        <v>0.02519098712740651</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3826156960726868</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.09500692604418488</v>
+        <v>0.04466939965965885</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>MRVE3</t>
         </is>
       </c>
+      <c r="B39" t="n">
+        <v>0.181905592605693</v>
+      </c>
       <c r="C39" t="n">
-        <v>0.3547922988079966</v>
+        <v>0.115723116099571</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6183018590431214</v>
+        <v>0.1422560194502282</v>
       </c>
       <c r="E39" t="n">
-        <v>0.641615411433653</v>
+        <v>0.02510901601947611</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8839542500470231</v>
+        <v>0.03119074452456915</v>
       </c>
       <c r="G39" t="n">
-        <v>4.349939940796231</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2.217517115248985</v>
+        <v>0.02510901601947611</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>MULT3</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>0.307497294376802</v>
+      </c>
       <c r="C40" t="n">
-        <v>0.1596496972820531</v>
+        <v>0.157422856764971</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3076325341921376</v>
+        <v>0.2800626412521735</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1289164561689339</v>
+        <v>0.1679729037425</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1700468685898056</v>
+        <v>0.2223936541170809</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6251437670224306</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.1535749955875626</v>
+        <v>0.1679729037425</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>PETR3</t>
         </is>
       </c>
+      <c r="B41" t="n">
+        <v>0.1347906576492658</v>
+      </c>
       <c r="C41" t="n">
-        <v>1.773305233392799</v>
+        <v>0.1771027027349692</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6287723867398133</v>
+        <v>0.2053170283845488</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8663337989324844</v>
+        <v>0.1383089645265153</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3039862252522513</v>
+        <v>0.2359362712075558</v>
       </c>
       <c r="G41" t="n">
-        <v>4.762668729721938</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.37097837779728</v>
+        <v>0.1383089645265153</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>PETR4</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>0.2387899959690668</v>
+      </c>
       <c r="C42" t="n">
-        <v>0.2953203069878245</v>
+        <v>0.1713116247251736</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6095686871939024</v>
+        <v>0.195617807979154</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3112353938537266</v>
+        <v>0.1334151244980854</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2367865254269609</v>
+        <v>0.2057655852539644</v>
       </c>
       <c r="G42" t="n">
-        <v>2.261671208760188</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.2793059884624082</v>
+        <v>0.1334151244980854</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>RADL3</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>0.2536759247551055</v>
+      </c>
       <c r="C43" t="n">
-        <v>0.1290579313402255</v>
+        <v>0.1697879305271839</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08511737082722948</v>
+        <v>0.1363478685909972</v>
       </c>
       <c r="E43" t="n">
-        <v>0.06979344851940905</v>
+        <v>0.06588820017740595</v>
       </c>
       <c r="F43" t="n">
-        <v>0.118017087382209</v>
+        <v>0.02030578744373552</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7132023904823415</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.168873721679322</v>
+        <v>0.06588820017740595</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>RENT3</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>0.3946129520907573</v>
+      </c>
       <c r="C44" t="n">
-        <v>0.1017675548677332</v>
+        <v>0.2016629710383538</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3919885635657517</v>
+        <v>0.2468211476602027</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07209964257978567</v>
+        <v>0.1425754547962905</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2867662675138298</v>
+        <v>0.1365869515089094</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4202708528099634</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.4954230721250059</v>
+        <v>0.1425754547962905</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>SANB11</t>
         </is>
       </c>
+      <c r="B45" t="n">
+        <v>0.22678651925316</v>
+      </c>
       <c r="C45" t="n">
-        <v>0.1246754078812017</v>
+        <v>0.1483470537409141</v>
       </c>
       <c r="D45" t="n">
-        <v>939.078665901231</v>
+        <v>0.2033465233049236</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1389689851597256</v>
+        <v>0.1807229548387541</v>
       </c>
       <c r="F45" t="n">
-        <v>516.8668466321806</v>
+        <v>0.2562845791505651</v>
       </c>
       <c r="G45" t="n">
-        <v>1.560673536539011</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1757.948185997232</v>
+        <v>0.1807229548387541</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t>SBSP3</t>
         </is>
       </c>
+      <c r="B46" t="n">
+        <v>0.2219118172470783</v>
+      </c>
       <c r="C46" t="n">
-        <v>0.4385898563225867</v>
+        <v>0.1807544085854751</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2349741076032023</v>
+        <v>0.2700832232987748</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1885336460358528</v>
+        <v>0.1564759140286586</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1590223317663557</v>
+        <v>0.157145290857668</v>
       </c>
       <c r="G46" t="n">
-        <v>3.191281305837163</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.312941860252414</v>
+        <v>0.1564759140286586</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>TAEE11</t>
         </is>
       </c>
+      <c r="B47" t="n">
+        <v>0.2722556562854714</v>
+      </c>
       <c r="C47" t="n">
-        <v>0.1123793689414216</v>
+        <v>0.1796265233317305</v>
       </c>
       <c r="D47" t="n">
-        <v>0.336088759310525</v>
+        <v>0.203753305136469</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1305620938982285</v>
+        <v>0.1058601812313141</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1777259071053437</v>
+        <v>0.09342106856772356</v>
       </c>
       <c r="G47" t="n">
-        <v>1.467404270538125</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.2810429673623565</v>
+        <v>0.1058601812313141</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>TIMS3</t>
         </is>
       </c>
+      <c r="B48" t="n">
+        <v>0.1153781872217367</v>
+      </c>
       <c r="C48" t="n">
-        <v>0.2637904106904539</v>
+        <v>0.09414880448286551</v>
       </c>
       <c r="D48" t="n">
-        <v>0.864081405269007</v>
+        <v>0.08270782471485695</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2735021262849753</v>
+        <v>0.0359008504294166</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5980316133489108</v>
+        <v>0.3125666514048465</v>
       </c>
       <c r="G48" t="n">
-        <v>2.896080476938947</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.9409337067792348</v>
+        <v>0.0359008504294166</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="A49" t="inlineStr">
         <is>
           <t>TOTS3</t>
         </is>
       </c>
+      <c r="B49" t="n">
+        <v>0.2304241794184997</v>
+      </c>
       <c r="C49" t="n">
-        <v>0.1535938802328932</v>
+        <v>0.165393995284736</v>
       </c>
       <c r="D49" t="n">
-        <v>0.19617466345258</v>
+        <v>0.1397614976945367</v>
       </c>
       <c r="E49" t="n">
-        <v>0.08433034554952633</v>
+        <v>0.08612537678300003</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1351318581232351</v>
+        <v>0.02740448500958731</v>
       </c>
       <c r="G49" t="n">
-        <v>0.7691449661732375</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.2267223296480481</v>
+        <v>0.08612537678300003</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>UGPA3</t>
         </is>
       </c>
+      <c r="B50" t="n">
+        <v>0.1780699167681879</v>
+      </c>
       <c r="C50" t="n">
-        <v>0.2065441937435269</v>
+        <v>0.1843236760079963</v>
       </c>
       <c r="D50" t="n">
-        <v>1.168260975388037</v>
+        <v>0.1524445182111947</v>
       </c>
       <c r="E50" t="n">
-        <v>0.12680957087829</v>
+        <v>0.1342787378085565</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8398045716304412</v>
+        <v>0.06944505425800743</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8165884079557029</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.7412215533588112</v>
+        <v>0.1342787378085565</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t>USIM5</t>
         </is>
       </c>
+      <c r="B51" t="n">
+        <v>0.07902893480677443</v>
+      </c>
       <c r="C51" t="n">
-        <v>0.1489762524814351</v>
+        <v>0.01765988241142161</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7543198729032955</v>
+        <v>0.1667277587637725</v>
       </c>
       <c r="E51" t="n">
-        <v>0.09993833219791387</v>
+        <v>0.04214390653696293</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7534689682248207</v>
+        <v>0.2881207590164958</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8191766555951201</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.7486371281588827</v>
+        <v>0.04214390653696293</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
+      <c r="A52" t="inlineStr">
         <is>
           <t>VALE3</t>
         </is>
       </c>
+      <c r="B52" t="n">
+        <v>0.1547437145622717</v>
+      </c>
       <c r="C52" t="n">
-        <v>0.1359508414067623</v>
+        <v>0.1816630800195785</v>
       </c>
       <c r="D52" t="n">
-        <v>1.203189476469577</v>
+        <v>0.2568098890827743</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1439392259092179</v>
+        <v>0.1669970622617769</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7092531294998643</v>
+        <v>0.3985881518590323</v>
       </c>
       <c r="G52" t="n">
-        <v>0.84873750161151</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.9526079862673101</v>
+        <v>0.1669970622617769</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
+      <c r="A53" t="inlineStr">
         <is>
           <t>VIVT3</t>
         </is>
       </c>
+      <c r="B53" t="n">
+        <v>0.1325668183637655</v>
+      </c>
       <c r="C53" t="n">
-        <v>0.1433124699470135</v>
+        <v>0.156781724664439</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5078536915895427</v>
+        <v>0.2481580249126835</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2375304109129373</v>
+        <v>0.1624225038147936</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3521257330628376</v>
+        <v>0.3747287520054035</v>
       </c>
       <c r="G53" t="n">
-        <v>2.940309409042892</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.4157607006955257</v>
+        <v>0.1624225038147936</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
+      <c r="A54" t="inlineStr">
         <is>
           <t>WEGE3</t>
         </is>
       </c>
+      <c r="B54" t="n">
+        <v>0.4017632436214248</v>
+      </c>
       <c r="C54" t="n">
-        <v>0.4267577277111767</v>
+        <v>0.1419925333806114</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4129802467408031</v>
+        <v>0.1251041534981959</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3096677535260949</v>
+        <v>0.1045809364475611</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1177742424979518</v>
+        <v>0.0513086319204339</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5423958054742829</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.127661858474989</v>
+        <v>0.1045809364475611</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="A55" t="inlineStr">
         <is>
           <t>YDUQ3</t>
         </is>
       </c>
+      <c r="B55" t="n">
+        <v>0.2944573530420615</v>
+      </c>
       <c r="C55" t="n">
-        <v>0.06367468508490787</v>
+        <v>0.1774754938728921</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2841614327784873</v>
+        <v>0.3282396541995286</v>
       </c>
       <c r="E55" t="n">
-        <v>0.09307970043219135</v>
+        <v>0.1833884047430532</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1224223222695538</v>
+        <v>0.2369775964585782</v>
       </c>
       <c r="G55" t="n">
-        <v>0.412903916710138</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.1277228348967521</v>
+        <v>0.1833884047430532</v>
       </c>
     </row>
   </sheetData>
